--- a/scrum/burndown.xlsx
+++ b/scrum/burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jautu/github/iw/scrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A09AFE93-6C7A-934F-B50A-37B396DA3EDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64DC8FA-5CAC-1049-ADEA-B6D0243C4AC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="6" xr2:uid="{F778D463-D90C-C340-996D-4EE14E291D0A}"/>
   </bookViews>
